--- a/AAII_Financials/Quarterly/XOG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XOG_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>XOG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>165200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>285700</v>
+      </c>
+      <c r="F8" s="3">
         <v>176900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>222100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>221900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>288200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>282200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>260200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>230200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>214000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>180900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>119800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>89600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>94700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>72900</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>40200</v>
+      </c>
+      <c r="F9" s="3">
         <v>23500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>34600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>34200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>41700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>41900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>45200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>41000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>53700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>45600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>34700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>28800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>25000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>121400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>245500</v>
+      </c>
+      <c r="F10" s="3">
         <v>153400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>187500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>187700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>246500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>240300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>215000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>189200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>160300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>135300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>85100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>60800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>69700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>58300</v>
+      </c>
+      <c r="F12" s="3">
         <v>13200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>13300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>6200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>10300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>11000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>3000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>7300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>11800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>7200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>6400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>10800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>21700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,96 +1002,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>73900</v>
       </c>
       <c r="E14" s="3">
+        <v>1326800</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>8200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>54600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>16200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>900</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>2400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>76100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>172400</v>
+      </c>
+      <c r="F15" s="3">
         <v>115000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>118400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>118800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>125500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>107300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>106800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>96200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>101500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>94200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>68600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>50700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>64000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>396200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1646800</v>
+      </c>
+      <c r="F17" s="3">
         <v>194300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>219300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>211000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>282900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>140000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>139400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>183000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>200200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>175700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>133200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>117100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>320400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>95200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-231000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1361100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-17400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>2800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>10900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>5300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>142200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>120800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>47200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>13800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>5200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-13400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-27500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-225700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-22300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>263600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-75300</v>
+      </c>
+      <c r="F20" s="3">
         <v>89300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>74300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-120900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>169200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-34100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-88600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-50000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-82400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-37000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>34100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>51000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-38300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>108600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1264000</v>
+      </c>
+      <c r="F21" s="3">
         <v>186900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>195500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>8700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>300000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>215400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>139000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>93400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>32900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>62400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>89300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>74200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-199900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>24400</v>
+      </c>
+      <c r="F22" s="3">
         <v>23200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>18600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>13000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>20100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>20700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>19200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>63300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>18100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>15100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>9000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>9700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>10900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1460800</v>
+      </c>
+      <c r="F23" s="3">
         <v>48700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>58500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-123000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>154400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>87400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>13000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-66100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-86700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-46900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>11700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>13800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-274900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-110100</v>
+      </c>
+      <c r="F24" s="3">
         <v>14800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>15100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-29000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>54600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>22200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>4200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-14100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-32700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-17100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>4400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>5100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-29300</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="R24" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1350800</v>
+      </c>
+      <c r="F26" s="3">
         <v>33900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>43400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-94000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>99900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>65200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>8800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-52000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-54000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-29800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>7200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>8700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-245600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1363300</v>
+      </c>
+      <c r="F27" s="3">
         <v>23700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>35000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-102300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>91600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>57600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>4700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-56200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-58100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-33900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>3200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>4700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-245600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,40 +1689,46 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>19</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>19</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K29" s="3">
-        <v>23400</v>
+      <c r="K29" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>19</v>
+      <c r="M29" s="3">
+        <v>23400</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>19</v>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-263600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>75300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-89300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-74300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>120900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-169200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>34100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>88600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>50000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>82400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>37000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-34100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-51000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>38300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1363300</v>
+      </c>
+      <c r="F33" s="3">
         <v>23700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>35000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-102300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>91600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>57600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>4700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-56200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-34700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-33900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>3200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>4700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-245600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1363300</v>
+      </c>
+      <c r="F35" s="3">
         <v>23700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>35000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-102300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>91600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>57600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>4700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-56200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-34700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-33900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>3200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>4700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-245600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>32400</v>
+      </c>
+      <c r="F41" s="3">
         <v>57700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>35900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>112800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>235000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>274100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>68200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>15400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>6800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>114100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>88700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>284600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>588700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,184 +2234,214 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>88700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>137100</v>
+      </c>
+      <c r="F43" s="3">
         <v>124800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>121700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>115300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>132900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>151700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>135500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>153200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>139300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>123100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>70400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>52800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>57200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>36700</v>
+      </c>
+      <c r="F44" s="3">
         <v>28900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>18100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>27800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>26800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>26700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>24300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>15000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>13000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>13300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>10800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>9700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>5100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>164300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>17600</v>
+      </c>
+      <c r="F45" s="3">
         <v>66500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>12000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>69900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>13200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>15300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>18900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>4100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>22300</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="P45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>2600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>319500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>223800</v>
+      </c>
+      <c r="F46" s="3">
         <v>277900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>187600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>256100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>464600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>465700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>243400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>202500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>163300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>251500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>192200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>347100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>653700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>51100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,52 +2484,64 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2264500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2636400</v>
+      </c>
+      <c r="F48" s="3">
         <v>4073200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>4003300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3817600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3672000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3617000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3510400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3292300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3153600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2870100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2522400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2283700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2032200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1473400</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2333,38 +2554,44 @@
       <c r="F49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="3">
         <v>2200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>56400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>55800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>55800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>55500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>55000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>54800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>54500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>54500</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="R49" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>119400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>66800</v>
+      </c>
+      <c r="F52" s="3">
         <v>90300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>61600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>23300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>27300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>19100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>14600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>14500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>12400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>11600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>27100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>30000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>44400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2703400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2927000</v>
+      </c>
+      <c r="F54" s="3">
         <v>4441500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4252500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4097000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4166000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4158300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3824100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3565200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3384700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3188100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2796500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2715300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2784800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1573400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2878,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>194600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>173500</v>
+      </c>
+      <c r="F57" s="3">
         <v>207000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>270200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>183100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>186200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>200100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>252100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>175500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>211600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>151900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>154100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>88200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>131100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,184 +2974,214 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>269500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>291100</v>
+      </c>
+      <c r="F59" s="3">
         <v>264200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>266300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>245700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>216200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>350500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>339900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>235500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>188400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>108100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>100400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>84100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>143400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>464200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>464500</v>
+      </c>
+      <c r="F60" s="3">
         <v>471100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>536500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>428900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>402400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>550700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>592000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>411000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>399900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>260000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>254400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>172300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>274500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>187400</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1556300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1555800</v>
+      </c>
+      <c r="F61" s="3">
         <v>1635200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1564700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1423000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1417700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1422100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1321600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1231000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1023400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>932600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>539200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>538700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>538100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>626600</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>260000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>222300</v>
+      </c>
+      <c r="F62" s="3">
         <v>304000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>237500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>302500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>286900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>212400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>155300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>191700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>186200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>204900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>194800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>213700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>202900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>83100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2280500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2506900</v>
+      </c>
+      <c r="F66" s="3">
         <v>2668500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2494600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2306200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2254800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2329100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2068900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1833700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1609500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1397500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>988500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>924600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1015600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>897200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,52 +3494,64 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>182200</v>
+      </c>
+      <c r="E70" s="3">
+        <v>175600</v>
+      </c>
+      <c r="F70" s="3">
         <v>169300</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>167600</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>166000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>164400</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>162800</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>161300</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>159800</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>158400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>157000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>155700</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>154400</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>153100</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>370400</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1734200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1743200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-392500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-426400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-469800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-375800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-475600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-540800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-549600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-497600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-467100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-437300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-444500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-453200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-207600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>240700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>244400</v>
+      </c>
+      <c r="F76" s="3">
         <v>1603700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1590400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1624800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1746800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1666500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1593900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1571700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1616800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1633600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1652400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1636300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1616100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>305800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1363300</v>
+      </c>
+      <c r="F81" s="3">
         <v>23700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>35000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-102300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>91600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>57600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>4700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-56200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-34700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-33900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>3200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>4700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-245600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>76100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>172400</v>
+      </c>
+      <c r="F83" s="3">
         <v>115000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>118400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>118800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>125500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>107300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>106800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>96200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>101500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>94200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>68600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>50700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>64000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>147100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>201400</v>
+      </c>
+      <c r="F89" s="3">
         <v>138100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>84300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>134100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>216600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>181300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>167800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>119300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>175200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>75900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>46500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>19300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>18800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>56400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-7400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-16900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-8200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-4000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-9200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>4400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-7200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-15300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>3900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-683300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-635600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-78500</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-139700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-143300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-257600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-216900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-232400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-219200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-212300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-200800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-265100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-367300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-435700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-239500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-319800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-635300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-120500</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-83500</v>
+      </c>
+      <c r="F100" s="3">
         <v>141300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>55700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-24000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-36500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>236800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>85800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>154400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>84700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>385300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-2800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-3700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1203800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="F102" s="3">
         <v>21800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-76900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-122200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-39100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>205800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>52900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>8600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-107400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>25500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-195900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-304200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>587400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-102300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XOG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XOG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>XOG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -676,220 +676,271 @@
     <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>292500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>171400</v>
+      </c>
+      <c r="F8" s="3">
+        <v>158200</v>
+      </c>
+      <c r="G8" s="3">
+        <v>63100</v>
+      </c>
+      <c r="H8" s="3">
         <v>165200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="I8" s="3">
         <v>285700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="J8" s="3">
         <v>176900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="K8" s="3">
         <v>222100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="L8" s="3">
         <v>221900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="M8" s="3">
         <v>288200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="N8" s="3">
         <v>282200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="O8" s="3">
         <v>260200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="P8" s="3">
         <v>230200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="Q8" s="3">
         <v>214000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="R8" s="3">
         <v>180900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="S8" s="3">
         <v>119800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="T8" s="3">
         <v>89600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="U8" s="3">
         <v>94700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="V8" s="3">
         <v>72900</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>21300</v>
+      </c>
+      <c r="F9" s="3">
+        <v>14100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>27700</v>
+      </c>
+      <c r="H9" s="3">
         <v>43800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="I9" s="3">
         <v>40200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="J9" s="3">
         <v>23500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="K9" s="3">
         <v>34600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="L9" s="3">
         <v>34200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="M9" s="3">
         <v>41700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="N9" s="3">
         <v>41900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="O9" s="3">
         <v>45200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="P9" s="3">
         <v>41000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="Q9" s="3">
         <v>53700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="R9" s="3">
         <v>45600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="S9" s="3">
         <v>34700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="T9" s="3">
         <v>28800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="U9" s="3">
         <v>25000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="V9" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>254600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>150100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>144100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>35400</v>
+      </c>
+      <c r="H10" s="3">
         <v>121400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="I10" s="3">
         <v>245500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="J10" s="3">
         <v>153400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="K10" s="3">
         <v>187500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="L10" s="3">
         <v>187700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="M10" s="3">
         <v>246500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="N10" s="3">
         <v>240300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="O10" s="3">
         <v>215000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="P10" s="3">
         <v>189200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="Q10" s="3">
         <v>160300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="R10" s="3">
         <v>135300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="S10" s="3">
         <v>85100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="T10" s="3">
         <v>60800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="U10" s="3">
         <v>69700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="V10" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +959,74 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>74000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>9800</v>
+      </c>
+      <c r="G12" s="3">
+        <v>62700</v>
+      </c>
+      <c r="H12" s="3">
         <v>116400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="I12" s="3">
         <v>58300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="J12" s="3">
         <v>13200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="K12" s="3">
         <v>13300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="L12" s="3">
         <v>6200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="M12" s="3">
         <v>10300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="N12" s="3">
         <v>11000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="O12" s="3">
         <v>3000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="P12" s="3">
         <v>7300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="Q12" s="3">
         <v>11800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="R12" s="3">
         <v>7200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="S12" s="3">
         <v>6400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="T12" s="3">
         <v>10800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="U12" s="3">
         <v>21700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="V12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,108 +1075,144 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-870000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>355600</v>
+      </c>
+      <c r="F14" s="3">
+        <v>501100</v>
+      </c>
+      <c r="G14" s="3">
+        <v>27900</v>
+      </c>
+      <c r="H14" s="3">
         <v>73900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="I14" s="3">
         <v>1326800</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>3000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="L14" s="3">
         <v>8200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="M14" s="3">
         <v>54600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="N14" s="3">
         <v>16200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>900</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="U14" s="3">
         <v>2400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="V14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>88300</v>
+      </c>
+      <c r="F15" s="3">
+        <v>85300</v>
+      </c>
+      <c r="G15" s="3">
+        <v>82600</v>
+      </c>
+      <c r="H15" s="3">
         <v>76100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="I15" s="3">
         <v>172400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="J15" s="3">
         <v>115000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="K15" s="3">
         <v>118400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="L15" s="3">
         <v>118800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="M15" s="3">
         <v>125500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="N15" s="3">
         <v>107300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="O15" s="3">
         <v>106800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="P15" s="3">
         <v>96200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="Q15" s="3">
         <v>101500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="R15" s="3">
         <v>94200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="S15" s="3">
         <v>68600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="T15" s="3">
         <v>50700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="U15" s="3">
         <v>64000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="V15" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1228,136 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>-736000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>590300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>681800</v>
+      </c>
+      <c r="G17" s="3">
+        <v>265500</v>
+      </c>
+      <c r="H17" s="3">
         <v>396200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="I17" s="3">
         <v>1646800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="J17" s="3">
         <v>194300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="K17" s="3">
         <v>219300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="L17" s="3">
         <v>211000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="M17" s="3">
         <v>282900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="N17" s="3">
         <v>140000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
         <v>139400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="P17" s="3">
         <v>183000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="Q17" s="3">
         <v>200200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="R17" s="3">
         <v>175700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="S17" s="3">
         <v>133200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="T17" s="3">
         <v>117100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="U17" s="3">
         <v>320400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="V17" s="3">
         <v>95200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1028500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-418900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-523600</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-202400</v>
+      </c>
+      <c r="H18" s="3">
         <v>-231000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="I18" s="3">
         <v>-1361100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="J18" s="3">
         <v>-17400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="K18" s="3">
         <v>2800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="L18" s="3">
         <v>10900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="M18" s="3">
         <v>5300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="N18" s="3">
         <v>142200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3">
         <v>120800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="P18" s="3">
         <v>47200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="Q18" s="3">
         <v>13800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="R18" s="3">
         <v>5200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="S18" s="3">
         <v>-13400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="T18" s="3">
         <v>-27500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="U18" s="3">
         <v>-225700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="V18" s="3">
         <v>-22300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,258 +1376,322 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-69200</v>
+      </c>
+      <c r="H20" s="3">
         <v>263600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="I20" s="3">
         <v>-75300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="J20" s="3">
         <v>89300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="K20" s="3">
         <v>74300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="L20" s="3">
         <v>-120900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="M20" s="3">
         <v>169200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="N20" s="3">
         <v>-34100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="O20" s="3">
         <v>-88600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="P20" s="3">
         <v>-50000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="Q20" s="3">
         <v>-82400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="R20" s="3">
         <v>-37000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="S20" s="3">
         <v>34100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="T20" s="3">
         <v>51000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="U20" s="3">
         <v>-38300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="V20" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1042100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-349800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-447900</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-189000</v>
+      </c>
+      <c r="H21" s="3">
         <v>108600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="I21" s="3">
         <v>-1264000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="J21" s="3">
         <v>186900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="K21" s="3">
         <v>195500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="L21" s="3">
         <v>8700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="M21" s="3">
         <v>300000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="N21" s="3">
         <v>215400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>139000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="P21" s="3">
         <v>93400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="Q21" s="3">
         <v>32900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="R21" s="3">
         <v>62400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="S21" s="3">
         <v>89300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="T21" s="3">
         <v>74200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="U21" s="3">
         <v>-199900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="V21" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G22" s="3">
+        <v>20300</v>
+      </c>
+      <c r="H22" s="3">
         <v>21400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="I22" s="3">
         <v>24400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="J22" s="3">
         <v>23200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="K22" s="3">
         <v>18600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="L22" s="3">
         <v>13000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="M22" s="3">
         <v>20100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="N22" s="3">
         <v>20700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="O22" s="3">
         <v>19200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="P22" s="3">
         <v>63300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="Q22" s="3">
         <v>18100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="R22" s="3">
         <v>15100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="S22" s="3">
         <v>9000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="T22" s="3">
         <v>9700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="U22" s="3">
         <v>10900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="V22" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>982800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-446200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-540600</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-291900</v>
+      </c>
+      <c r="H23" s="3">
         <v>11200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="I23" s="3">
         <v>-1460800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="J23" s="3">
         <v>48700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="K23" s="3">
         <v>58500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="L23" s="3">
         <v>-123000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="M23" s="3">
         <v>154400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="N23" s="3">
         <v>87400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>13000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3">
         <v>-66100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="Q23" s="3">
         <v>-86700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="R23" s="3">
         <v>-46900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="S23" s="3">
         <v>11700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="T23" s="3">
         <v>13800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="U23" s="3">
         <v>-274900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="V23" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>2200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="I24" s="3">
         <v>-110100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="J24" s="3">
         <v>14800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="K24" s="3">
         <v>15100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="L24" s="3">
         <v>-29000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="M24" s="3">
         <v>54600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="N24" s="3">
         <v>22200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="O24" s="3">
         <v>4200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="P24" s="3">
         <v>-14100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="Q24" s="3">
         <v>-32700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="R24" s="3">
         <v>-17100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="S24" s="3">
         <v>4400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="T24" s="3">
         <v>5100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="U24" s="3">
         <v>-29300</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="V24" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1740,144 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>959500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-444000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-540600</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-291900</v>
+      </c>
+      <c r="H26" s="3">
         <v>9000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="I26" s="3">
         <v>-1350800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="J26" s="3">
         <v>33900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="K26" s="3">
         <v>43400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="L26" s="3">
         <v>-94000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="M26" s="3">
         <v>99900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <v>65200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>8800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="P26" s="3">
         <v>-52000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="Q26" s="3">
         <v>-54000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="R26" s="3">
         <v>-29800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="S26" s="3">
         <v>7200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="T26" s="3">
         <v>8700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="U26" s="3">
         <v>-245600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="V26" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>959100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-445900</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-542500</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-297800</v>
+      </c>
+      <c r="H27" s="3">
         <v>-3600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="I27" s="3">
         <v>-1363300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="J27" s="3">
         <v>23700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="K27" s="3">
         <v>35000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="L27" s="3">
         <v>-102300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="M27" s="3">
         <v>91600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <v>57600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>4700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="P27" s="3">
         <v>-56200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="Q27" s="3">
         <v>-58100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="R27" s="3">
         <v>-33900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="S27" s="3">
         <v>3200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="T27" s="3">
         <v>4700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="U27" s="3">
         <v>-245600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="V27" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,31 +1926,43 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>19</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>19</v>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>19</v>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>19</v>
@@ -1728,7 +1971,7 @@
         <v>19</v>
       </c>
       <c r="M29" s="3">
-        <v>23400</v>
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>19</v>
@@ -1739,14 +1982,26 @@
       <c r="P29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>19</v>
+      <c r="Q29" s="3">
+        <v>23400</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +2050,20 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +2112,144 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>19200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>9600</v>
+      </c>
+      <c r="G32" s="3">
+        <v>69200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-263600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="I32" s="3">
         <v>75300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="J32" s="3">
         <v>-89300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="K32" s="3">
         <v>-74300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="L32" s="3">
         <v>120900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="M32" s="3">
         <v>-169200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="N32" s="3">
         <v>34100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="O32" s="3">
         <v>88600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="P32" s="3">
         <v>50000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="Q32" s="3">
         <v>82400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="R32" s="3">
         <v>37000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="S32" s="3">
         <v>-34100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="T32" s="3">
         <v>-51000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="U32" s="3">
         <v>38300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="V32" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>959100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-445900</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-542500</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-297800</v>
+      </c>
+      <c r="H33" s="3">
         <v>-3600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="I33" s="3">
         <v>-1363300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="J33" s="3">
         <v>23700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="K33" s="3">
         <v>35000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="L33" s="3">
         <v>-102300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="M33" s="3">
         <v>91600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
         <v>57600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>4700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="P33" s="3">
         <v>-56200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="Q33" s="3">
         <v>-34700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="R33" s="3">
         <v>-33900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="S33" s="3">
         <v>3200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="T33" s="3">
         <v>4700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="U33" s="3">
         <v>-245600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="V33" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2298,149 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>959100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-445900</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-542500</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-297800</v>
+      </c>
+      <c r="H35" s="3">
         <v>-3600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="I35" s="3">
         <v>-1363300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="J35" s="3">
         <v>23700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="K35" s="3">
         <v>35000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="L35" s="3">
         <v>-102300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="M35" s="3">
         <v>91600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <v>57600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>4700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="P35" s="3">
         <v>-56200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="Q35" s="3">
         <v>-34700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="R35" s="3">
         <v>-33900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="S35" s="3">
         <v>3200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="T35" s="3">
         <v>4700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="U35" s="3">
         <v>-245600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="V35" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2459,12 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2483,74 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>205900</v>
+      </c>
+      <c r="F41" s="3">
+        <v>121200</v>
+      </c>
+      <c r="G41" s="3">
+        <v>62600</v>
+      </c>
+      <c r="H41" s="3">
         <v>32000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="I41" s="3">
         <v>32400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="J41" s="3">
         <v>57700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="K41" s="3">
         <v>35900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="L41" s="3">
         <v>112800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="M41" s="3">
         <v>235000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="N41" s="3">
         <v>274100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="O41" s="3">
         <v>68200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="P41" s="3">
         <v>15400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="Q41" s="3">
         <v>6800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="R41" s="3">
         <v>114100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="S41" s="3">
         <v>88700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="T41" s="3">
         <v>284600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="U41" s="3">
         <v>588700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="V41" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,208 +2599,268 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>89400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>76700</v>
+      </c>
+      <c r="F43" s="3">
+        <v>107800</v>
+      </c>
+      <c r="G43" s="3">
+        <v>96900</v>
+      </c>
+      <c r="H43" s="3">
         <v>88700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="I43" s="3">
         <v>137100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="J43" s="3">
         <v>124800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="K43" s="3">
         <v>121700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="L43" s="3">
         <v>115300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="M43" s="3">
         <v>132900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="N43" s="3">
         <v>151700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="O43" s="3">
         <v>135500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="P43" s="3">
         <v>153200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="Q43" s="3">
         <v>139300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="R43" s="3">
         <v>123100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="S43" s="3">
         <v>70400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="T43" s="3">
         <v>52800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="U43" s="3">
         <v>57200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="V43" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>34500</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>36700</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>28900</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
         <v>18100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="L44" s="3">
         <v>27800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="M44" s="3">
         <v>26800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="N44" s="3">
         <v>26700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="O44" s="3">
         <v>24300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="P44" s="3">
         <v>15000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="Q44" s="3">
         <v>13000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="R44" s="3">
         <v>13300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="S44" s="3">
         <v>10800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="T44" s="3">
         <v>9700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="U44" s="3">
         <v>5100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="V44" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>164300</v>
+        <v>55900</v>
       </c>
       <c r="E45" s="3">
-        <v>17600</v>
+        <v>43400</v>
       </c>
       <c r="F45" s="3">
-        <v>66500</v>
+        <v>81600</v>
       </c>
       <c r="G45" s="3">
+        <v>90400</v>
+      </c>
+      <c r="H45" s="3">
+        <v>198800</v>
+      </c>
+      <c r="I45" s="3">
+        <v>54300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>95300</v>
+      </c>
+      <c r="K45" s="3">
         <v>12000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="M45" s="3">
         <v>69900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="N45" s="3">
         <v>13200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="O45" s="3">
         <v>15300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="P45" s="3">
         <v>18900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="Q45" s="3">
         <v>4100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="R45" s="3">
         <v>1000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="S45" s="3">
         <v>22300</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="T45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="U45" s="3">
         <v>2600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="V45" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>183700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>325900</v>
+      </c>
+      <c r="F46" s="3">
+        <v>310600</v>
+      </c>
+      <c r="G46" s="3">
+        <v>249800</v>
+      </c>
+      <c r="H46" s="3">
         <v>319500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="I46" s="3">
         <v>223800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="J46" s="3">
         <v>277900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="K46" s="3">
         <v>187600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="L46" s="3">
         <v>256100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="M46" s="3">
         <v>464600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="N46" s="3">
         <v>465700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="O46" s="3">
         <v>243400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="P46" s="3">
         <v>202500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="Q46" s="3">
         <v>163300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="R46" s="3">
         <v>251500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="S46" s="3">
         <v>192200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="T46" s="3">
         <v>347100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="U46" s="3">
         <v>653700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="V46" s="3">
         <v>51100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,108 +2909,144 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1133300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1698100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2046500</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2138800</v>
+      </c>
+      <c r="H48" s="3">
         <v>2264500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="I48" s="3">
         <v>2636400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="J48" s="3">
         <v>4073200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="K48" s="3">
         <v>4003300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="L48" s="3">
         <v>3817600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="M48" s="3">
         <v>3672000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="N48" s="3">
         <v>3617000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="O48" s="3">
         <v>3510400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="P48" s="3">
         <v>3292300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="Q48" s="3">
         <v>3153600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="R48" s="3">
         <v>2870100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="S48" s="3">
         <v>2522400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="T48" s="3">
         <v>2283700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="U48" s="3">
         <v>2032200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="V48" s="3">
         <v>1473400</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="L49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="M49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N49" s="3">
+        <v>56400</v>
+      </c>
+      <c r="O49" s="3">
+        <v>55800</v>
+      </c>
+      <c r="P49" s="3">
+        <v>55800</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>55500</v>
+      </c>
+      <c r="R49" s="3">
+        <v>55000</v>
+      </c>
+      <c r="S49" s="3">
+        <v>54800</v>
+      </c>
+      <c r="T49" s="3">
+        <v>54500</v>
+      </c>
+      <c r="U49" s="3">
+        <v>54500</v>
+      </c>
+      <c r="V49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I49" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J49" s="3">
-        <v>56400</v>
-      </c>
-      <c r="K49" s="3">
-        <v>55800</v>
-      </c>
-      <c r="L49" s="3">
-        <v>55800</v>
-      </c>
-      <c r="M49" s="3">
-        <v>55500</v>
-      </c>
-      <c r="N49" s="3">
-        <v>55000</v>
-      </c>
-      <c r="O49" s="3">
-        <v>54800</v>
-      </c>
-      <c r="P49" s="3">
-        <v>54500</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>54500</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +3095,20 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +3157,82 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F52" s="3">
+        <v>13500</v>
+      </c>
+      <c r="G52" s="3">
+        <v>15700</v>
+      </c>
+      <c r="H52" s="3">
         <v>119400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="I52" s="3">
         <v>66800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="J52" s="3">
         <v>90300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="K52" s="3">
         <v>61600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="L52" s="3">
         <v>23300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="M52" s="3">
         <v>27300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="N52" s="3">
         <v>19100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="O52" s="3">
         <v>14600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="P52" s="3">
         <v>14500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="Q52" s="3">
         <v>12400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="R52" s="3">
         <v>11600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="S52" s="3">
         <v>27100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="T52" s="3">
         <v>30000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="U52" s="3">
         <v>44400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="V52" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +3281,82 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1332100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2025200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2370600</v>
+      </c>
+      <c r="G54" s="3">
+        <v>2404400</v>
+      </c>
+      <c r="H54" s="3">
         <v>2703400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="I54" s="3">
         <v>2927000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="J54" s="3">
         <v>4441500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="K54" s="3">
         <v>4252500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="L54" s="3">
         <v>4097000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="M54" s="3">
         <v>4166000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="N54" s="3">
         <v>4158300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="O54" s="3">
         <v>3824100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="P54" s="3">
         <v>3565200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="Q54" s="3">
         <v>3384700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="R54" s="3">
         <v>3188100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="S54" s="3">
         <v>2796500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="T54" s="3">
         <v>2715300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="U54" s="3">
         <v>2784800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="V54" s="3">
         <v>1573400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3375,12 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3399,74 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>115600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>75800</v>
+      </c>
+      <c r="F57" s="3">
+        <v>35300</v>
+      </c>
+      <c r="G57" s="3">
+        <v>38000</v>
+      </c>
+      <c r="H57" s="3">
         <v>194600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="I57" s="3">
         <v>173500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="J57" s="3">
         <v>207000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="K57" s="3">
         <v>270200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="L57" s="3">
         <v>183100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="M57" s="3">
         <v>186200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="N57" s="3">
         <v>200100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="O57" s="3">
         <v>252100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="P57" s="3">
         <v>175500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="Q57" s="3">
         <v>211600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="R57" s="3">
         <v>151900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="S57" s="3">
         <v>154100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="T57" s="3">
         <v>88200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="U57" s="3">
         <v>131100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="V57" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2939,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>560500</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>563700</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>519400</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2980,208 +3515,268 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>306700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>59100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>50300</v>
+      </c>
+      <c r="G59" s="3">
+        <v>14500</v>
+      </c>
+      <c r="H59" s="3">
         <v>269500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="I59" s="3">
         <v>291100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="J59" s="3">
         <v>264200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="K59" s="3">
         <v>266300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="L59" s="3">
         <v>245700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="M59" s="3">
         <v>216200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="N59" s="3">
         <v>350500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="O59" s="3">
         <v>339900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="P59" s="3">
         <v>235500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="Q59" s="3">
         <v>188400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="R59" s="3">
         <v>108100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="S59" s="3">
         <v>100400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="T59" s="3">
         <v>84100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="U59" s="3">
         <v>143400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="V59" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>422300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>695400</v>
+      </c>
+      <c r="F60" s="3">
+        <v>649300</v>
+      </c>
+      <c r="G60" s="3">
+        <v>571900</v>
+      </c>
+      <c r="H60" s="3">
         <v>464200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="I60" s="3">
         <v>464500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="J60" s="3">
         <v>471100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="K60" s="3">
         <v>536500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="L60" s="3">
         <v>428900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="M60" s="3">
         <v>402400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="N60" s="3">
         <v>550700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>592000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="P60" s="3">
         <v>411000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="Q60" s="3">
         <v>399900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="R60" s="3">
         <v>260000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="S60" s="3">
         <v>254400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="T60" s="3">
         <v>172300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="U60" s="3">
         <v>274500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="V60" s="3">
         <v>187400</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>93700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>1556300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="I61" s="3">
         <v>1555800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="J61" s="3">
         <v>1635200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="K61" s="3">
         <v>1564700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="L61" s="3">
         <v>1423000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="M61" s="3">
         <v>1417700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="N61" s="3">
         <v>1422100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="O61" s="3">
         <v>1321600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="P61" s="3">
         <v>1231000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="Q61" s="3">
         <v>1023400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="R61" s="3">
         <v>932600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="S61" s="3">
         <v>539200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="T61" s="3">
         <v>538700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="U61" s="3">
         <v>538100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="V61" s="3">
         <v>626600</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>180700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2177100</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2126600</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1699000</v>
+      </c>
+      <c r="H62" s="3">
         <v>260000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="I62" s="3">
         <v>222300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="J62" s="3">
         <v>304000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="K62" s="3">
         <v>237500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="L62" s="3">
         <v>302500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="M62" s="3">
         <v>286900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="N62" s="3">
         <v>212400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="O62" s="3">
         <v>155300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="P62" s="3">
         <v>191700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="Q62" s="3">
         <v>186200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="R62" s="3">
         <v>204900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="S62" s="3">
         <v>194800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="T62" s="3">
         <v>213700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="U62" s="3">
         <v>202900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="V62" s="3">
         <v>83100</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3825,20 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3887,20 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3949,82 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>696700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2872500</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2775900</v>
+      </c>
+      <c r="G66" s="3">
+        <v>2271000</v>
+      </c>
+      <c r="H66" s="3">
         <v>2280500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="I66" s="3">
         <v>2506900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="J66" s="3">
         <v>2668500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="K66" s="3">
         <v>2494600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>2306200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>2254800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>2329100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>2068900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>1833700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="Q66" s="3">
         <v>1609500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="R66" s="3">
         <v>1397500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="S66" s="3">
         <v>988500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="T66" s="3">
         <v>924600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="U66" s="3">
         <v>1015600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="V66" s="3">
         <v>897200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +4043,12 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +4097,20 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,58 +4159,82 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>191800</v>
+      </c>
+      <c r="F70" s="3">
+        <v>189800</v>
+      </c>
+      <c r="G70" s="3">
+        <v>188000</v>
+      </c>
+      <c r="H70" s="3">
         <v>182200</v>
       </c>
-      <c r="E70" s="3">
+      <c r="I70" s="3">
         <v>175600</v>
       </c>
-      <c r="F70" s="3">
+      <c r="J70" s="3">
         <v>169300</v>
       </c>
-      <c r="G70" s="3">
+      <c r="K70" s="3">
         <v>167600</v>
       </c>
-      <c r="H70" s="3">
+      <c r="L70" s="3">
         <v>166000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="M70" s="3">
         <v>164400</v>
       </c>
-      <c r="J70" s="3">
+      <c r="N70" s="3">
         <v>162800</v>
       </c>
-      <c r="K70" s="3">
+      <c r="O70" s="3">
         <v>161300</v>
       </c>
-      <c r="L70" s="3">
+      <c r="P70" s="3">
         <v>159800</v>
       </c>
-      <c r="M70" s="3">
+      <c r="Q70" s="3">
         <v>158400</v>
       </c>
-      <c r="N70" s="3">
+      <c r="R70" s="3">
         <v>157000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="S70" s="3">
         <v>155700</v>
       </c>
-      <c r="P70" s="3">
+      <c r="T70" s="3">
         <v>154400</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="U70" s="3">
         <v>153100</v>
       </c>
-      <c r="R70" s="3">
+      <c r="V70" s="3">
         <v>370400</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +4283,82 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>88600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3010700</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-2566700</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-2026100</v>
+      </c>
+      <c r="H72" s="3">
         <v>-1734200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="I72" s="3">
         <v>-1743200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="J72" s="3">
         <v>-392500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="K72" s="3">
         <v>-426400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>-469800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>-375800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>-475600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>-540800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3">
         <v>-549600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="Q72" s="3">
         <v>-497600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="R72" s="3">
         <v>-467100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="S72" s="3">
         <v>-437300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="T72" s="3">
         <v>-444500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="U72" s="3">
         <v>-453200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="V72" s="3">
         <v>-207600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4407,20 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4469,20 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4531,82 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>635500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1039000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-595200</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="H76" s="3">
         <v>240700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="I76" s="3">
         <v>244400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="J76" s="3">
         <v>1603700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="K76" s="3">
         <v>1590400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>1624800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>1746800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>1666500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>1593900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3">
         <v>1571700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="Q76" s="3">
         <v>1616800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="R76" s="3">
         <v>1633600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="S76" s="3">
         <v>1652400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="T76" s="3">
         <v>1636300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="U76" s="3">
         <v>1616100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="V76" s="3">
         <v>305800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4655,149 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>959100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-445900</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-542500</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-297800</v>
+      </c>
+      <c r="H81" s="3">
         <v>-3600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="I81" s="3">
         <v>-1363300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="J81" s="3">
         <v>23700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="K81" s="3">
         <v>35000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="L81" s="3">
         <v>-102300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="M81" s="3">
         <v>91600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="N81" s="3">
         <v>57600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>4700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="P81" s="3">
         <v>-56200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="Q81" s="3">
         <v>-34700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="R81" s="3">
         <v>-33900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="S81" s="3">
         <v>3200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="T81" s="3">
         <v>4700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="U81" s="3">
         <v>-245600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="V81" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4816,74 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>88300</v>
+      </c>
+      <c r="F83" s="3">
+        <v>85300</v>
+      </c>
+      <c r="G83" s="3">
+        <v>82600</v>
+      </c>
+      <c r="H83" s="3">
         <v>76100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="I83" s="3">
         <v>172400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="J83" s="3">
         <v>115000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="K83" s="3">
         <v>118400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="L83" s="3">
         <v>118800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="M83" s="3">
         <v>125500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="N83" s="3">
         <v>107300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="O83" s="3">
         <v>106800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="P83" s="3">
         <v>96200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="Q83" s="3">
         <v>101500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="R83" s="3">
         <v>94200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="S83" s="3">
         <v>68600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="T83" s="3">
         <v>50700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="U83" s="3">
         <v>64000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="V83" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4932,20 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4994,20 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +5056,20 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +5118,20 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +5180,82 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>164500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>116900</v>
+      </c>
+      <c r="F89" s="3">
+        <v>65100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-63100</v>
+      </c>
+      <c r="H89" s="3">
         <v>147100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="I89" s="3">
         <v>201400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="J89" s="3">
         <v>138100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="K89" s="3">
         <v>84300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="L89" s="3">
         <v>134100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="M89" s="3">
         <v>216600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="N89" s="3">
         <v>181300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="O89" s="3">
         <v>167800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="P89" s="3">
         <v>119300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="Q89" s="3">
         <v>175200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="R89" s="3">
         <v>75900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="S89" s="3">
         <v>46500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="T89" s="3">
         <v>19300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="U89" s="3">
         <v>18800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="V89" s="3">
         <v>56400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +5274,74 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H91" s="3">
         <v>-3000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="I91" s="3">
         <v>-6500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="J91" s="3">
         <v>-7400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="K91" s="3">
         <v>-16900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="L91" s="3">
         <v>-8200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="M91" s="3">
         <v>-4000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="N91" s="3">
         <v>-9200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="O91" s="3">
         <v>4400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="P91" s="3">
         <v>-7200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="Q91" s="3">
         <v>-15300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="R91" s="3">
         <v>3900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="S91" s="3">
         <v>-2600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="T91" s="3">
         <v>-683300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="U91" s="3">
         <v>-635600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="V91" s="3">
         <v>-78500</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +5390,20 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +5452,82 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-51700</v>
+      </c>
+      <c r="H94" s="3">
         <v>-139700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="I94" s="3">
         <v>-143300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="J94" s="3">
         <v>-257600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="K94" s="3">
         <v>-216900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="L94" s="3">
         <v>-232400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="M94" s="3">
         <v>-219200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="N94" s="3">
         <v>-212300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="O94" s="3">
         <v>-200800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="P94" s="3">
         <v>-265100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="Q94" s="3">
         <v>-367300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="R94" s="3">
         <v>-435700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="S94" s="3">
         <v>-239500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="T94" s="3">
         <v>-319800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="U94" s="3">
         <v>-635300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="V94" s="3">
         <v>-120500</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5546,12 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5600,20 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5662,20 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5724,20 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5786,82 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-274500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F100" s="3">
+        <v>18700</v>
+      </c>
+      <c r="G100" s="3">
+        <v>145400</v>
+      </c>
+      <c r="H100" s="3">
         <v>-7800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="I100" s="3">
         <v>-83500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="J100" s="3">
         <v>141300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="K100" s="3">
         <v>55700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="L100" s="3">
         <v>-24000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="M100" s="3">
         <v>-36500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="N100" s="3">
         <v>236800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="O100" s="3">
         <v>85800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="P100" s="3">
         <v>154400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="Q100" s="3">
         <v>84700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="R100" s="3">
         <v>385300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="S100" s="3">
         <v>-2800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="T100" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="U100" s="3">
         <v>1203800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="V100" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5910,78 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-141800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>84700</v>
+      </c>
+      <c r="F102" s="3">
+        <v>58600</v>
+      </c>
+      <c r="G102" s="3">
+        <v>30600</v>
+      </c>
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="I102" s="3">
         <v>-25300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="J102" s="3">
         <v>21800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="K102" s="3">
         <v>-76900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="L102" s="3">
         <v>-122200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="M102" s="3">
         <v>-39100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="N102" s="3">
         <v>205800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="O102" s="3">
         <v>52900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="P102" s="3">
         <v>8600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="Q102" s="3">
         <v>-107400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="R102" s="3">
         <v>25500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="S102" s="3">
         <v>-195900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="T102" s="3">
         <v>-304200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="U102" s="3">
         <v>587400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="V102" s="3">
         <v>-102300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XOG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XOG_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>223600</v>
+      </c>
+      <c r="E8" s="3">
         <v>292500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>171400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>158200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>63100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>165200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>285700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>176900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>222100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>221900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>288200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>282200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>260200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>230200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>214000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>180900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>119800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>89600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>94700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>72900</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E9" s="3">
         <v>37900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>21300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>27700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>43800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>40200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>23500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>34600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>34200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>41700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>41900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>45200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>41000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>53700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>45600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>34700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>28800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>25000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E10" s="3">
         <v>254600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>150100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>144100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>35400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>121400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>245500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>153400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>187500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>187700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>246500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>240300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>215000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>189200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>160300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>135300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>85100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>60800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>69700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>51200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E12" s="3">
         <v>1100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>74000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>62700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>116400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>58300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>13200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>10800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>21700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,132 +1104,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>-870000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>355600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>501100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>27900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>73900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1326800</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>3000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>54600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>16200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>900</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E15" s="3">
         <v>54700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>88300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>85300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>82600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>76100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>172400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>115000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>118400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>118800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>125500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>107300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>106800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>96200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>101500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>94200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>68600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>50700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>64000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>116300</v>
+      </c>
+      <c r="E17" s="3">
         <v>-736000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>590300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>681800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>265500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>396200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1646800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>194300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>219300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>211000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>282900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>140000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>139400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>183000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>175700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>133200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>117100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>320400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>95200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>107300</v>
+      </c>
+      <c r="E18" s="3">
         <v>1028500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-418900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-523600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-202400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-231000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1361100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-17400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>142200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>120800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>47200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-13400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-27500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-225700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-22300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-75800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-41100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-19200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-9600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-69200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>263600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-75300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>89300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>74300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-120900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>169200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-34100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-88600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-50000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-82400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-37000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>34100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>51000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-38300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>81600</v>
+      </c>
+      <c r="E21" s="3">
         <v>1042100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-349800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-447900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-189000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>108600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1264000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>186900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>195500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>300000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>215400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>139000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>93400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>32900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>62400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>89300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>74200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-199900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E22" s="3">
         <v>4600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>20300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>21400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>24400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>23200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>13000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>20100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>20700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>19200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>63300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>18100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>15100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>9000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>9700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>10900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E23" s="3">
         <v>982800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-446200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-540600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-291900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>11200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1460800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>48700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>58500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-123000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>154400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>87400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>13000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-66100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-86700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-46900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>11700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>13800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-274900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E24" s="3">
         <v>23300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>2200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-110100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>14800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>15100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-29000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>54600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>22200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-14100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-32700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-17100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-29300</v>
       </c>
-      <c r="V24" s="3" t="s">
+      <c r="W24" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E26" s="3">
         <v>959500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-444000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-540600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-291900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1350800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>33900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>43400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-94000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>99900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>65200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-52000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-54000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-29800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>8700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-245600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E27" s="3">
         <v>959100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-445900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-542500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-297800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1363300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>23700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>35000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-102300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>91600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>57600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-56200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-58100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-33900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-245600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,17 +2025,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>19</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>19</v>
@@ -1982,11 +2043,11 @@
       <c r="P29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R29" s="3">
         <v>23400</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>19</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>75800</v>
+      </c>
+      <c r="E32" s="3">
         <v>41100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>19200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>9600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>69200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-263600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>75300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-89300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-74300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>120900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-169200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>34100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>88600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>50000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>82400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>37000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-34100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-51000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>38300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E33" s="3">
         <v>959100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-445900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-542500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-297800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1363300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>23700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>35000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-102300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>91600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>57600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-56200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-34700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-33900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-245600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E35" s="3">
         <v>959100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-445900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-542500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-297800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1363300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>23700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>35000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-102300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>91600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>57600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-56200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-34700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-33900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-245600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E41" s="3">
         <v>38400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>205900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>121200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>62600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>32000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>32400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>57700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>35900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>112800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>235000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>274100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>68200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>114100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>88700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>284600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>588700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,70 +2701,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100400</v>
+      </c>
+      <c r="E43" s="3">
         <v>89400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>76700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>107800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>96900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>88700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>137100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>124800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>121700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>115300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>132900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>151700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>135500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>153200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>139300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>123100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>70400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>52800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>57200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>43500</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2700,167 +2796,176 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <v>18100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>27800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>26800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>26700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>24300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>15000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>13000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>13300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>10800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>9700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E45" s="3">
         <v>55900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>43400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>81600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>90400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>198800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>54300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>95300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>69900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>15300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>18900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>22300</v>
       </c>
-      <c r="T45" s="3" t="s">
+      <c r="U45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>155100</v>
+      </c>
+      <c r="E46" s="3">
         <v>183700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>325900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>310600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>249800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>319500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>223800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>277900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>187600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>256100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>464600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>465700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>243400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>202500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>163300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>251500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>192200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>347100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>653700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>51100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,70 +3026,76 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1116600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1133300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1698100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2046500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2138800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2264500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2636400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4073200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4003300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3817600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3672000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3617000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3510400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3292300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3153600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2870100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2522400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2283700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2032200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1473400</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3009,44 +3120,47 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>19</v>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N49" s="3">
         <v>2200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>56400</v>
-      </c>
-      <c r="O49" s="3">
-        <v>55800</v>
       </c>
       <c r="P49" s="3">
         <v>55800</v>
       </c>
       <c r="Q49" s="3">
+        <v>55800</v>
+      </c>
+      <c r="R49" s="3">
         <v>55500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>55000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>54800</v>
-      </c>
-      <c r="T49" s="3">
-        <v>54500</v>
       </c>
       <c r="U49" s="3">
         <v>54500</v>
       </c>
-      <c r="V49" s="3" t="s">
+      <c r="V49" s="3">
+        <v>54500</v>
+      </c>
+      <c r="W49" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3178,61 +3298,64 @@
         <v>15100</v>
       </c>
       <c r="E52" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F52" s="3">
         <v>1100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>119400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>66800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>90300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>61600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>23300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>27300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>19100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>14600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>14500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>27100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>30000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>44400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>48900</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1286800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1332100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2025200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2370600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2404400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2703400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2927000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4441500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4252500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4097000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4166000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4158300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3824100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3565200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3384700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3188100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2796500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2715300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2784800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1573400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3533,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>97500</v>
+      </c>
+      <c r="E57" s="3">
         <v>115600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>75800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>35300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>38000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>194600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>173500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>207000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>270200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>183100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>186200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>200100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>252100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>175500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>211600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>151900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>154100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>88200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>131100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3474,16 +3608,16 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>560500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>563700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>519400</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>19</v>
@@ -3491,8 +3625,8 @@
       <c r="J58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3527,141 +3661,150 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>290200</v>
+      </c>
+      <c r="E59" s="3">
         <v>306700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>59100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>50300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>269500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>291100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>264200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>266300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>245700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>216200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>350500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>339900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>235500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>188400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>108100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>100400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>84100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>143400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>387700</v>
+      </c>
+      <c r="E60" s="3">
         <v>422300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>695400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>649300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>571900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>464200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>464500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>471100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>536500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>428900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>402400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>550700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>592000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>411000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>399900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>260000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>254400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>172300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>274500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>187400</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E61" s="3">
         <v>93700</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -3669,114 +3812,120 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>1556300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1555800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1635200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1564700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1423000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1417700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1422100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1321600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1231000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1023400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>932600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>539200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>538700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>538100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>626600</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>143700</v>
+      </c>
+      <c r="E62" s="3">
         <v>180700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2177100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2126600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1699000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>260000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>222300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>304000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>237500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>302500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>286900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>212400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>155300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>191700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>186200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>204900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>194800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>213700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>202900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>83100</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>621300</v>
+      </c>
+      <c r="E66" s="3">
         <v>696700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2872500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2775900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2271000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2280500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2506900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2668500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2494600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2306200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2254800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2329100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2068900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1833700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1609500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1397500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>988500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>924600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1015600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>897200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4180,61 +4348,64 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>191800</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>189800</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>188000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>182200</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>175600</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>169300</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>167600</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>166000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>164400</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>162800</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>161300</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>159800</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>158400</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>157000</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>155700</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>154400</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>153100</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>370400</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>113100</v>
+      </c>
+      <c r="E72" s="3">
         <v>88600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3010700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2566700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2026100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1734200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1743200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-392500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-426400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-469800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-375800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-475600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-540800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-549600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-497600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-467100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-437300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-444500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-453200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-207600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>665500</v>
+      </c>
+      <c r="E76" s="3">
         <v>635500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1039000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-595200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-54600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>240700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>244400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1603700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1590400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1624800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1746800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1666500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1593900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1571700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1616800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1633600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1652400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1636300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1616100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>305800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E81" s="3">
         <v>959100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-445900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-542500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-297800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1363300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>23700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>35000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-102300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>91600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>57600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-56200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-34700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-33900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-245600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-37300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E83" s="3">
         <v>54700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>88300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>85300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>82600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>76100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>172400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>115000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>118400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>118800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>125500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>107300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>106800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>96200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>101500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>94200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>68600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>50700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>64000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E89" s="3">
         <v>164500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>116900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>65100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-63100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>147100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>201400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>138100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>84300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>134100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>216600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>181300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>167800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>119300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>175200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>75900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>46500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>19300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>18800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>56400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>4400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>3900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-683300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-635600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-78500</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-31800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-28500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-25200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-51700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-139700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-143300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-257600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-216900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-232400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-219200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-212300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-265100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-367300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-435700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-239500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-319800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-635300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-120500</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-274500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>18700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>145400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-83500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>141300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>55700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-24000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-36500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>236800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>85800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>154400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>84700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>385300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1203800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-141800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>84700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>58600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>30600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-25300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>21800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-76900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-122200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-39100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>205800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>52900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>8600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-107400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>25500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-195900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-304200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>587400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-102300</v>
       </c>
     </row>
